--- a/data/trans_camb/IP16B04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -843,7 +843,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
